--- a/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.3.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.3.xlsx
@@ -1870,7 +1870,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C3CE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E639" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2017,7 +2017,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CED3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AAEC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2144,7 +2144,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8A1B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D133" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2933,7 +2933,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A073" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EFD0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3022,7 +3022,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9FE1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FA8A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3375,7 +3375,7 @@
       <c r="AC4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8BCA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C00E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AC4"/>
   </mergeCells>
@@ -3594,7 +3594,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CAAE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9FA9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3763,7 +3763,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EBA8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A1D1" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3973,7 +3973,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DEBE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D5B3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.3.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.3.xlsx
@@ -1870,7 +1870,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="E639" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8B95" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2017,7 +2017,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AAEC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CAB9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2144,7 +2144,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D133" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EA05" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2933,7 +2933,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EFD0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8D8D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3022,7 +3022,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FA8A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9277" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3375,7 +3375,7 @@
       <c r="AC4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C00E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C568" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AC4"/>
   </mergeCells>
@@ -3594,7 +3594,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9FA9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A793" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3763,7 +3763,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A1D1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FBCF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3973,7 +3973,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D5B3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8F67" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.3.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.3.xlsx
@@ -1870,7 +1870,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="8B95" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9BAB" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2017,7 +2017,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CAB9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F556" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2144,7 +2144,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EA05" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CCB5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2933,7 +2933,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8D8D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="836F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3022,7 +3022,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9277" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CA3D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3375,7 +3375,7 @@
       <c r="AC4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C568" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D6D6" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AC4"/>
   </mergeCells>
@@ -3594,7 +3594,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A793" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FE0B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3763,7 +3763,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FBCF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F19A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3973,7 +3973,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8F67" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A08C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.3.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.3.xlsx
@@ -1870,7 +1870,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="9BAB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BB60" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2017,7 +2017,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F556" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D4AF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2144,7 +2144,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CCB5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A313" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2933,7 +2933,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="836F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D79C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3022,7 +3022,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CA3D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C2DA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3375,7 +3375,7 @@
       <c r="AC4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D6D6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EA1A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AC4"/>
   </mergeCells>
@@ -3594,7 +3594,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FE0B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FB5A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3763,7 +3763,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F19A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A9CE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3973,7 +3973,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A08C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AA95" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.3.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.3.xlsx
@@ -1870,7 +1870,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="BB60" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D853" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2017,7 +2017,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D4AF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8511" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2144,7 +2144,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A313" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C235" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2933,7 +2933,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D79C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CCF0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3022,7 +3022,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C2DA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F784" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3375,7 +3375,7 @@
       <c r="AC4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EA1A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EAB0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AC4"/>
   </mergeCells>
@@ -3594,7 +3594,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FB5A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F35E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3763,7 +3763,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A9CE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E24F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3973,7 +3973,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AA95" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D734" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.3.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.3.xlsx
@@ -1870,7 +1870,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D853" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F413" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2017,7 +2017,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8511" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D3B1" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2144,7 +2144,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C235" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9FBE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2933,7 +2933,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CCF0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C694" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3022,7 +3022,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F784" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C028" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3375,7 +3375,7 @@
       <c r="AC4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EAB0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CEF5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AC4"/>
   </mergeCells>
@@ -3594,7 +3594,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F35E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B0E9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3763,7 +3763,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E24F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CE34" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3973,7 +3973,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D734" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DFBC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.3.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.3.xlsx
@@ -1870,7 +1870,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="F413" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FD9D" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2017,7 +2017,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D3B1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E027" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2144,7 +2144,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9FBE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="915A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2933,7 +2933,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C694" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A931" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3022,7 +3022,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C028" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BFB5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3375,7 +3375,7 @@
       <c r="AC4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CEF5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AB3D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AC4"/>
   </mergeCells>
@@ -3594,7 +3594,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B0E9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B075" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3763,7 +3763,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CE34" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F5AA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3973,7 +3973,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DFBC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C29B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.3.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.3.xlsx
@@ -1870,7 +1870,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="FD9D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EFA8" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2017,7 +2017,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E027" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B361" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2144,7 +2144,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="915A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E317" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2933,7 +2933,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A931" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ED6A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3022,7 +3022,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BFB5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F6D9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3375,7 +3375,7 @@
       <c r="AC4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AB3D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EC57" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AC4"/>
   </mergeCells>
@@ -3594,7 +3594,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B075" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E204" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3763,7 +3763,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F5AA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9D2F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3973,7 +3973,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C29B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D045" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.3.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.3.xlsx
@@ -1870,7 +1870,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="EFA8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CA59" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2017,7 +2017,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B361" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E81B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2144,7 +2144,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E317" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B2FC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2933,7 +2933,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="ED6A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CCCD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3022,7 +3022,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F6D9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8154" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3375,7 +3375,7 @@
       <c r="AC4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EC57" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AAD8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AC4"/>
   </mergeCells>
@@ -3594,7 +3594,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E204" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EE0B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3763,7 +3763,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9D2F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AACA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3973,7 +3973,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D045" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D83E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.3.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.3.xlsx
@@ -1870,7 +1870,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CA59" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D6DA" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2017,7 +2017,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E81B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E184" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2144,7 +2144,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B2FC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8B28" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2933,7 +2933,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CCCD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DA35" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3022,7 +3022,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8154" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F6BF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3375,7 +3375,7 @@
       <c r="AC4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AAD8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F3EA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AC4"/>
   </mergeCells>
@@ -3594,7 +3594,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EE0B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A038" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3763,7 +3763,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AACA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E9A0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3973,7 +3973,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D83E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9D98" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.3.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.3.xlsx
@@ -1870,7 +1870,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D6DA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EABC" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2017,7 +2017,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E184" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9EE1" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2144,7 +2144,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8B28" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BE3A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2933,7 +2933,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DA35" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C592" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3022,7 +3022,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F6BF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E8AC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3375,7 +3375,7 @@
       <c r="AC4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F3EA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F3F8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AC4"/>
   </mergeCells>
@@ -3594,7 +3594,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A038" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A830" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3763,7 +3763,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E9A0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D025" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3973,7 +3973,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9D98" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F947" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
